--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-15.42939325423831</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.27510816698314</v>
+        <v>-14.32679474758017</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.39001286931286</v>
+        <v>-5.374607608675211</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.363172039737931</v>
+        <v>-7.422035682415586</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.36937801914077</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.26814622120466</v>
+        <v>-14.32516670829349</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.491909550433101</v>
+        <v>-5.468227201169765</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.524191480899774</v>
+        <v>-7.58568540927183</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.36910954584373</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.5841325130271</v>
+        <v>-14.63637155140009</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.578205410641017</v>
+        <v>-5.547854456011209</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.271693832251085</v>
+        <v>-7.336820292725259</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.40415430322634</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.45078973973887</v>
+        <v>-14.50524838722943</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.198393134170995</v>
+        <v>-5.167519055806427</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.200788565660218</v>
+        <v>-7.264624328321526</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.48011359881251</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.58713925225026</v>
+        <v>-14.64815405794936</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.201306982263676</v>
+        <v>-5.17280896123643</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.135006978265877</v>
+        <v>-7.208420305379472</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.56445760546501</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.92824037234805</v>
+        <v>-14.98433194813216</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.083897482354714</v>
+        <v>-5.05685149636694</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.869333456110851</v>
+        <v>-6.942609891032173</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.6634855960001</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.22997520915344</v>
+        <v>-15.28539699099678</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.0626058574493</v>
+        <v>-5.030631752539676</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.897117682135529</v>
+        <v>-6.960782329556496</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.74428038249086</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.47617092795067</v>
+        <v>-15.52436675764472</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.812371818979992</v>
+        <v>-4.777928765602576</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.517227181555637</v>
+        <v>-6.581703404116512</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.81168185164101</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.84100817638733</v>
+        <v>-15.8796557756703</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.658754334214657</v>
+        <v>-4.61989161862955</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.464504131502826</v>
+        <v>-6.522375305786499</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.8319998326773</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.97261535223782</v>
+        <v>-16.01169807313194</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.78220175760426</v>
+        <v>-4.732485446774602</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.119100685362152</v>
+        <v>-6.181640861203729</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.81400016991496</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.39591534478905</v>
+        <v>-16.43498339866256</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.475372575643545</v>
+        <v>-4.426516730022463</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.003676122241157</v>
+        <v>-6.074454274653485</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.73535461379787</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.78360381132167</v>
+        <v>-16.81595436976004</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.226351010877232</v>
+        <v>-4.170831448896545</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.118347778304647</v>
+        <v>-6.19979863270745</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.62501285786209</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.00802389353366</v>
+        <v>-17.03201425022962</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.943883750134353</v>
+        <v>-3.889943337371681</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.892157875606827</v>
+        <v>-5.974307857991599</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.48591840099486</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.24317045681167</v>
+        <v>-17.2633669441789</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.800733629071084</v>
+        <v>-3.739278812753963</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.603696692445111</v>
+        <v>-5.666227090272954</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.36895176861467</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.7216184468217</v>
+        <v>-17.74170248703099</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.358219839532878</v>
+        <v>-3.29287826275656</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.278910188262218</v>
+        <v>-5.337074702957905</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.29090498479233</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.35160609367863</v>
+        <v>-18.35647065551121</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.175869661410684</v>
+        <v>-3.106875996504781</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.194584597821668</v>
+        <v>-5.241426172613581</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.29817418321288</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.86993860170895</v>
+        <v>-18.87245644024541</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.816322318404025</v>
+        <v>-2.746169958870663</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.953111659657872</v>
+        <v>-4.992243270620659</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.38588068143926</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.28220410576155</v>
+        <v>-19.27700709146202</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.532759920122958</v>
+        <v>-2.457982560093494</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.677317893288333</v>
+        <v>-4.71946113248114</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.56257506606556</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.73318565519326</v>
+        <v>-19.74278766467988</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.166739532024504</v>
+        <v>-2.092930195354689</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.618278246363468</v>
+        <v>-4.65572314995717</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.78551234429996</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.24529934648886</v>
+        <v>-20.24806652437554</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.926620848762843</v>
+        <v>-1.849183868997777</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.601464951748148</v>
+        <v>-4.63998543685257</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-16.03889156503724</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.64489743374929</v>
+        <v>-20.65304251918957</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.684487894672013</v>
+        <v>-1.613763521335221</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.44213221795539</v>
+        <v>-4.474531666462435</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-16.27944248984774</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.98103621187716</v>
+        <v>-20.98791015553205</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.532889569742715</v>
+        <v>-1.461505180478889</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.386822883269981</v>
+        <v>-4.415936919162459</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-16.50250130683308</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.42476736412523</v>
+        <v>-21.4301354936651</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.380631228886382</v>
+        <v>-1.311965127440562</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.463961633616165</v>
+        <v>-4.499597604669108</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-16.6828646107294</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.87681960606078</v>
+        <v>-21.88281352847962</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.182646006803795</v>
+        <v>-1.111779852267862</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.544341795515114</v>
+        <v>-4.576306122411004</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-16.82878039993747</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.7564131449424</v>
+        <v>-21.77621362275341</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.9746578766714988</v>
+        <v>-0.9008534290085507</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.594278111653783</v>
+        <v>-4.623881048232953</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-16.92642803042245</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.02810014554374</v>
+        <v>-22.05192916501308</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.834333601577306</v>
+        <v>-0.7699062690851007</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.611066961234769</v>
+        <v>-4.645920691189006</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-16.98975625540765</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.04776373116247</v>
+        <v>-22.07303500765755</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6462828414482894</v>
+        <v>-0.5844662386230168</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.53273040420619</v>
+        <v>-4.578579510604119</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-17.00681157782799</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.2427275470013</v>
+        <v>-22.27910175809115</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7099230438349213</v>
+        <v>-0.641990293419138</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.333464262324471</v>
+        <v>-4.374448806889819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-16.98587507668035</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.3614473007506</v>
+        <v>-22.39563123676407</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5217549475410987</v>
+        <v>-0.4647149044248021</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.557874566522734</v>
+        <v>-4.604222351621088</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-16.9111379540028</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.38041175838736</v>
+        <v>-22.42009093811924</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.670390534309047</v>
+        <v>-0.6121673515309569</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.340396874061756</v>
+        <v>-4.383698807882022</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-16.79078456713724</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.30317033889697</v>
+        <v>-22.34501045966403</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5724441707372729</v>
+        <v>-0.5107840161317416</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.330521080190588</v>
+        <v>-4.381083189208223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-16.61458087340046</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.05018867856846</v>
+        <v>-22.08937406860678</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5734561951587244</v>
+        <v>-0.5156143549162536</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.175568896550586</v>
+        <v>-4.224004287581113</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-16.39552029454377</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.85196878415626</v>
+        <v>-21.8954809452718</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6825641614076652</v>
+        <v>-0.6242431984922369</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.838579431227872</v>
+        <v>-3.889410435623187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-16.12861740806339</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.69447431694546</v>
+        <v>-21.72722577394692</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6842313127492832</v>
+        <v>-0.6346030040432296</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.712873286665755</v>
+        <v>-3.771790708418947</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-15.82837175911834</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.73315125026962</v>
+        <v>-21.76633782888224</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8279241135747805</v>
+        <v>-0.776046861709946</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.666105046976847</v>
+        <v>-3.722040174541221</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-15.48949219075106</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.24607416313949</v>
+        <v>-21.28147057285595</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.9523346713171652</v>
+        <v>-0.8953288512489369</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.600132788314697</v>
+        <v>-3.649814876096286</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-15.12699269048</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.2121297884625</v>
+        <v>-21.2337196427868</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.187755018979721</v>
+        <v>-1.130318966307204</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.246437586527735</v>
+        <v>-3.293342718408917</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-14.73808941440638</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.60878722903026</v>
+        <v>-20.61941104095206</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.142678375666765</v>
+        <v>-1.093534078640536</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.202255631471424</v>
+        <v>-3.266008281015995</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-14.33784499945763</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.38562362158306</v>
+        <v>-20.39870171495205</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.389260326006487</v>
+        <v>-1.340570706618881</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.039011692185134</v>
+        <v>-3.095337940298861</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-13.92422118098515</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.85397834785413</v>
+        <v>-19.86507150443516</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.226735070729634</v>
+        <v>-1.182132661082768</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.747788220143611</v>
+        <v>-2.802867771506275</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-13.51110753889706</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.34078418604093</v>
+        <v>-19.3481910314443</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.299864835444947</v>
+        <v>-1.253864169834145</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.408373807414908</v>
+        <v>-2.471833116547464</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-13.09813082093355</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.96038033974001</v>
+        <v>-18.96119191487992</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.42015884940539</v>
+        <v>-1.368868278364585</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.240680871879726</v>
+        <v>-2.307401148592514</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.69908479378031</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.57408524016446</v>
+        <v>-18.574212354343</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.377981387164514</v>
+        <v>-1.325761904818996</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.251412241952603</v>
+        <v>-2.320601467133184</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.31415595733253</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.27113304064921</v>
+        <v>-18.26744184046469</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.441284248077329</v>
+        <v>-1.393279089651091</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.908942199932078</v>
+        <v>-1.98806588706623</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.95490623557623</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.8042084398245</v>
+        <v>-17.78866139798771</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.439851769065323</v>
+        <v>-1.393332868726627</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.944221273483737</v>
+        <v>-2.015791445008505</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.62144577769545</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.38058577282005</v>
+        <v>-17.36040884148029</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.53955328610232</v>
+        <v>-1.487128465468391</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.986907192438771</v>
+        <v>-2.058907596567828</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.32283299095086</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.95005982811952</v>
+        <v>-16.92764862064158</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.611363018963566</v>
+        <v>-1.56587569907379</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.865224700528125</v>
+        <v>-1.944592838005622</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.05637868359003</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.70624994467334</v>
+        <v>-16.68607301333358</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.613347955751534</v>
+        <v>-1.556860370411199</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.872255092402749</v>
+        <v>-1.945795533694883</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.82402986099011</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.25713110685793</v>
+        <v>-16.22898998333197</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.608718066248565</v>
+        <v>-1.547018799588099</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.021105795472841</v>
+        <v>-2.094636458751242</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.61749029979473</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.10122556687888</v>
+        <v>-16.06549670469547</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.466095957926922</v>
+        <v>-1.409256364092169</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.888696822496184</v>
+        <v>-1.974645563216548</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.43144345374293</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.69308149561509</v>
+        <v>-15.65939134929518</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.472182771476232</v>
+        <v>-1.415651185074094</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.737939406747994</v>
+        <v>-1.827814019982492</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.25457884503698</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.72744143587576</v>
+        <v>-15.68875472453787</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.528865917091244</v>
+        <v>-1.472989457609273</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.909289319419629</v>
+        <v>-2.003383145580274</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.08124279197575</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.38262467055912</v>
+        <v>-15.34367884185728</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.467308431629917</v>
+        <v>-1.413856919553936</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.745126246842359</v>
+        <v>-1.837054242960961</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.904520956145491</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.0691904403212</v>
+        <v>-15.03356913628886</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.426377666140106</v>
+        <v>-1.37592800428041</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.124239395330412</v>
+        <v>-2.216333617682489</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.722563651090205</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.94846619375647</v>
+        <v>-14.90988215156278</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.528641022775366</v>
+        <v>-1.479369611570597</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.982243079887734</v>
+        <v>-2.074097740903333</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.533435796236867</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.86199432930135</v>
+        <v>-14.82480854307159</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.586751758395516</v>
+        <v>-1.545014306772664</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.974635785202815</v>
+        <v>-2.082805062133308</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.337501476469326</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.47126978950437</v>
+        <v>-14.42784563051243</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.458654889475478</v>
+        <v>-1.419141935977071</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.302570809808002</v>
+        <v>-2.397940666760912</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.134779968656328</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.50608440740367</v>
+        <v>-14.45711611462465</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.504508884880273</v>
+        <v>-1.459041121017964</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.459346593009363</v>
+        <v>-2.561497502486684</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.925426280097295</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.41757871609191</v>
+        <v>-14.36862997934036</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.494696648098375</v>
+        <v>-1.444823889048976</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.383513207496645</v>
+        <v>-2.485845010228042</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.710045709881044</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.41509021159665</v>
+        <v>-14.36796018539959</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.552758493649857</v>
+        <v>-1.504665333100015</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.700139959218658</v>
+        <v>-2.807248321659031</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.488380124687229</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.2132426740892</v>
+        <v>-14.16762824002089</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.507486290062224</v>
+        <v>-1.460278039755294</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.926647647362828</v>
+        <v>-3.035936506865845</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.261508623083724</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.27949849514963</v>
+        <v>-14.23835261335768</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.591054084438402</v>
+        <v>-1.547986822947748</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.136043811472795</v>
+        <v>-3.233985286037702</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.02932306072689</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.41137945538466</v>
+        <v>-14.37117226291116</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.619967671049337</v>
+        <v>-1.576299061714052</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.351512122111471</v>
+        <v>-3.453076350764762</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.79358743772113</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.44231220183164</v>
+        <v>-14.40228101360534</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836536008233068</v>
+        <v>-1.786433465860924</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.418418181085202</v>
+        <v>-3.521053102242347</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.553315893905512</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.43651383968747</v>
+        <v>-14.39626753515903</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.792886954925252</v>
+        <v>-1.749741469324727</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.790266265369019</v>
+        <v>-3.88788506548071</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.310703694133457</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.61234697165607</v>
+        <v>-14.56928459917228</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.976107376269756</v>
+        <v>-1.930488053194573</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.912290987760349</v>
+        <v>-4.007435950397381</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.065422039626425</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.74046339660358</v>
+        <v>-14.69795837090262</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.02665481826679</v>
+        <v>-1.979094559465441</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.886921931127927</v>
+        <v>-3.975153838055141</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.821951088842693</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.92829904043045</v>
+        <v>-14.88948521491401</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.063337036789253</v>
+        <v>-2.021438247939791</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.991996466711663</v>
+        <v>-4.094166932216452</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.581744241136993</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.90974525937051</v>
+        <v>-14.87125410830729</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.171667650946354</v>
+        <v>-2.129969311378436</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.865630306222513</v>
+        <v>-3.965542050554787</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.35175226170998</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09739512093644</v>
+        <v>-15.05905552908609</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.219159463651566</v>
+        <v>-2.181225659371173</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.047330246431406</v>
+        <v>-4.14138007153025</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.134435954902777</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.41093690932543</v>
+        <v>-15.37839567961924</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.371862704132787</v>
+        <v>-2.331572398542541</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.142040087457283</v>
+        <v>-4.228355503692667</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.936180028338516</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.44954050754659</v>
+        <v>-15.42820977058624</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.442767970723655</v>
+        <v>-2.402345661948002</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.964002013391708</v>
+        <v>-4.037552232697577</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.757525047585682</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.83616317058222</v>
+        <v>-15.81402574748883</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.614631229116316</v>
+        <v>-2.578819253816164</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.921907664267571</v>
+        <v>-3.982951804007871</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.602880047463681</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.90498572024778</v>
+        <v>-15.88680350370973</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.818077471869248</v>
+        <v>-2.775719116374296</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.785352813467769</v>
+        <v>-3.844480462516239</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.468456629657888</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.31260177876995</v>
+        <v>-16.30624606984296</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.879023831472209</v>
+        <v>-2.843299858295662</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.794534368363836</v>
+        <v>-3.850205489557396</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.357760933823121</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.7408641132911</v>
+        <v>-16.7376422577658</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.960513797929948</v>
+        <v>-2.920453275662447</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.575961538364669</v>
+        <v>-3.633998938881816</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.265820772274732</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.31682823426861</v>
+        <v>-17.3172291328317</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.177864376212386</v>
+        <v>-3.128416960760408</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.410502878967666</v>
+        <v>-3.457579126089191</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.197138009780439</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.81706652788449</v>
+        <v>-17.81946703025614</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.167485014633925</v>
+        <v>-3.113339263582842</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.274383149779021</v>
+        <v>-3.312732519643101</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.146857235560819</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.39412578640019</v>
+        <v>-18.40122951337782</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.316501943937493</v>
+        <v>-3.26327532617739</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.056025436081998</v>
+        <v>-3.091656518128074</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.12181928498577</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.98709387326084</v>
+        <v>-18.98896636289086</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.436052828854164</v>
+        <v>-3.384126686920661</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.762367238620752</v>
+        <v>-2.79626761223594</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.118252048236121</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.81453872945872</v>
+        <v>-19.81294491322011</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.467132245507142</v>
+        <v>-3.415919898576208</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.718248840653712</v>
+        <v>-2.741740518649238</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.146271688571176</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.46822339259959</v>
+        <v>-20.47170436548883</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.42211427027659</v>
+        <v>-3.367430728470146</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.434261098775223</v>
+        <v>-2.451822411441181</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.203034098356143</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.46611369519873</v>
+        <v>-21.46798618482876</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.373581099108725</v>
+        <v>-3.317230405960663</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.263390308776545</v>
+        <v>-2.284706378716295</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.301524271549888</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.27326428389205</v>
+        <v>-22.28237739269198</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.31441433800532</v>
+        <v>-3.260791710688997</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.824494384319857</v>
+        <v>-1.822289442222878</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.439358220320563</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.68552725250344</v>
+        <v>-23.68827487436264</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.264170014434035</v>
+        <v>-3.200627592184742</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.605437542640865</v>
+        <v>-1.608121607410802</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.631707762145966</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.72260783414777</v>
+        <v>-24.71996777043964</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.13955411840324</v>
+        <v>-3.083130090152175</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.426563448401048</v>
+        <v>-1.421068204682636</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.874506759688484</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.16330526669714</v>
+        <v>-26.16485508187395</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.066971922457021</v>
+        <v>-3.003830398770814</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.243465252228217</v>
+        <v>-1.241524316502051</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.183000353561958</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.52170849115915</v>
+        <v>-27.52551213850161</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.045910080874351</v>
+        <v>-2.983335681984707</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.039481218719924</v>
+        <v>-1.030622338277074</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.548769207097283</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.17931649137293</v>
+        <v>-29.17960983178495</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.098765134112569</v>
+        <v>-3.020291684891717</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.152607948613469</v>
+        <v>-1.134513734199017</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.985056783932908</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.70546398594224</v>
+        <v>-30.70303903853625</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.171816674718012</v>
+        <v>-3.091270286585588</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.040028787489019</v>
+        <v>-1.026031560829041</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.477537098676056</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.4395824991198</v>
+        <v>-32.43649264677991</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.033721786755132</v>
+        <v>-2.958127962578893</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.448676426460104</v>
+        <v>-1.428039928474857</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.035885233525718</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.41637909065386</v>
+        <v>-34.4139199201998</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.010308332869477</v>
+        <v>-2.922433323443547</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.35854269586166</v>
+        <v>-1.349380696993062</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.639317270481921</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.49235896449701</v>
+        <v>-36.48748218014727</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.194066544969342</v>
+        <v>-3.102808342791507</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.467357321698586</v>
+        <v>-1.464643922887449</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.290372576567576</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.60535350932959</v>
+        <v>-38.59821800380733</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.243342845180977</v>
+        <v>-3.144511571366292</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.851892378802048</v>
+        <v>-1.847521606663026</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.969415686300028</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.54290115373605</v>
+        <v>-40.53709790258502</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.314032995469701</v>
+        <v>-3.213867022780347</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.194147304520429</v>
+        <v>-2.200195006014803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.67021383227451</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.69214279547993</v>
+        <v>-42.68554752521646</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.225165517649788</v>
+        <v>-3.120662995869481</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.535458651913495</v>
+        <v>-2.547583388943444</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.38529103373896</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.96268069759197</v>
+        <v>-44.9567796663036</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.278915259144651</v>
+        <v>-3.162757344993619</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.919284803021254</v>
+        <v>-2.933238028619429</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.09484951656663</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.09950670639732</v>
+        <v>-47.08631494361867</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.1033119104988</v>
+        <v>-2.986229974049921</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.282582014294837</v>
+        <v>-3.297195255820045</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.82184542250241</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.58168116001609</v>
+        <v>-49.56956497874815</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.16159865036616</v>
+        <v>-3.037398319919052</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.036329980980848</v>
+        <v>-4.061288361036449</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.51426711015461</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.83006819426586</v>
+        <v>-51.80901368619349</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.147650313774851</v>
+        <v>-3.00998565841626</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.398082266084486</v>
+        <v>-4.434564035325406</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.27230807394697</v>
       </c>
       <c r="E102" t="n">
-        <v>-54.06018378760224</v>
+        <v>-54.04382639287726</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.137212284113988</v>
+        <v>-2.998960947931367</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.091270104710022</v>
+        <v>-5.133819131472783</v>
       </c>
     </row>
   </sheetData>
